--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Naive Bayes</t>
   </si>
@@ -42,16 +42,19 @@
   <si>
     <t>IBk</t>
   </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -68,8 +71,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,7 +81,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,9 +110,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,8 +132,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,7 +156,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,14 +164,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,32 +193,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,14 +202,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,13 +224,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,7 +248,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +266,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,61 +374,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,79 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +415,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,17 +466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -482,18 +483,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,153 +506,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3538,7 +3541,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6795135" y="9525"/>
+        <a:off x="7499985" y="9525"/>
         <a:ext cx="6047740" cy="4135120"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3568,7 +3571,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6776085" y="4318000"/>
+        <a:off x="7480935" y="4318000"/>
         <a:ext cx="6162040" cy="3914140"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3582,15 +3585,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>173990</xdr:rowOff>
+      <xdr:colOff>181610</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3598,8 +3601,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9525" y="4718050"/>
-        <a:ext cx="6315075" cy="4457065"/>
+        <a:off x="635" y="7261225"/>
+        <a:ext cx="7019925" cy="4457065"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3870,15 +3873,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:C21"/>
+  <dimension ref="A3:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="20.4" customWidth="true"/>
+    <col min="2" max="3" width="12.5"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -4044,6 +4048,69 @@
       </c>
       <c r="C21">
         <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:B28" si="0">AVERAGE(B4,B11,B18)</f>
+        <v>50.9</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:C28" si="1">AVERAGE(C4,C11,C18)</f>
+        <v>41.2366666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(B5,B12,B19)</f>
+        <v>66.965</v>
+      </c>
+      <c r="C26">
+        <f>AVERAGE(C5,C12,C19)</f>
+        <v>58.6166666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>66.5966666666667</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>59.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>68.0666666666667</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>58.4066666666667</v>
       </c>
     </row>
   </sheetData>
